--- a/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
+++ b/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murielle.gagnebin\Documents\02_ProjetsPays\01_DE\2004_EPS_Europe\eps-us-2.1.0\InputData\trans\AVL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-eu\InputData\trans\AVL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D1F81A-F13F-4571-A80A-362D09121777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577A112A-6853-4BFF-89CA-2BD20CDC9A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -18,12 +18,15 @@
     <sheet name="Data" sheetId="13" r:id="rId3"/>
     <sheet name="AVL" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
   <si>
     <t>ships</t>
   </si>
@@ -73,9 +76,6 @@
   </si>
   <si>
     <t>https://www.acea.be/uploads/publications/ACEA_Report_Vehicles_in_use-Europe_2019.pdf</t>
-  </si>
-  <si>
-    <t>LDVs &amp; HDVs Lifetimes</t>
   </si>
   <si>
     <t>ACEA (European Automobile Manufacturers Association)</t>
@@ -337,19 +337,43 @@
   <si>
     <t>Table 2.1: https://unctad.org/en/PublicationChapters/rmt2017ch2_en.pdf). We took the average age of world vessel fleets for freight, the average of the 3</t>
   </si>
+  <si>
+    <t>US AVLo settings (see US EPS)</t>
+  </si>
+  <si>
+    <t>other vehicle types: see notes below</t>
+  </si>
+  <si>
+    <t>freight LDVs &amp; passenger HDVs Lifetimes</t>
+  </si>
+  <si>
+    <t>Calibration edits: Passenger LDV fuel economy declines too quickly compared to Potencia if we use the ACEA value cited above. This</t>
+  </si>
+  <si>
+    <t>is due to the fact that the average lifetime does not capture the fact that many vehicles stay in circulation for much longer. We found a lifetime of 25</t>
+  </si>
+  <si>
+    <t>years best matches fleet fuel economy / stock turnover in the Potencia data set.</t>
+  </si>
+  <si>
+    <t>For freight HDVs, we also found fuel economy declines too quickly compared to Potencia if we use ACEA average lifetimes. We therefore use the average lifetime</t>
+  </si>
+  <si>
+    <t>of freight HDVs from the US EPS model, which are considerably longer than the ACEA lifetimes.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="###0.00_)"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="#,##0_)"/>
-    <numFmt numFmtId="174" formatCode="0.0%"/>
-    <numFmt numFmtId="175" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="###0.00_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="#,##0_)"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -1044,7 +1068,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8">
@@ -1101,10 +1125,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="28" fillId="0" borderId="8">
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="8">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1146,7 +1170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1156,89 +1180,89 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="36" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="62" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="63">
-    <cellStyle name="20 % - Akzent1" xfId="35" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="39" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="43" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="47" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="51" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="55" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="36" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="40" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="44" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="48" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="52" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="56" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="37" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="41" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="45" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="49" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="53" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="57" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="34" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="38" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="42" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="46" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="50" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="54" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="26" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="27" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="11" builtinId="9" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="35" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="39" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="43" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="47" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="51" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="55" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="36" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="40" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="44" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="48" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="52" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="56" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="37" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="41" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="45" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="49" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="53" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="57" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="34" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="38" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="42" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="46" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="50" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="54" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Body: normal cell" xfId="3" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Data" xfId="14" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Data no deci" xfId="61" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Eingabe" xfId="25" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="33" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="32" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="9" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Footnotes: all except top row" xfId="12" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Gut" xfId="22" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Header: bottom row" xfId="2" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Header: top rows" xfId="4" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Hed Side" xfId="15" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Hed Side Regular" xfId="60" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Hed Top" xfId="59" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Hyperlink 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Komma" xfId="62" builtinId="3"/>
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Calculation" xfId="27" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="29" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="62" builtinId="3"/>
+    <cellStyle name="Data" xfId="14" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Data no deci" xfId="61" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Explanatory Text" xfId="32" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" customBuiltin="1"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="9" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Footnotes: all except top row" xfId="12" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Good" xfId="22" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Header: bottom row" xfId="2" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Header: top rows" xfId="4" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="19" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="20" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="21" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hed Side" xfId="15" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Hed Side Regular" xfId="60" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Hed Top" xfId="59" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Input" xfId="25" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="28" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="24" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="31" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Prozent" xfId="16" builtinId="5"/>
-    <cellStyle name="Schlecht" xfId="23" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Section Break" xfId="8" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Section Break: parent row" xfId="5" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Table title" xfId="13" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Title-2" xfId="58" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Überschrift" xfId="17" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="18" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="19" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="20" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="21" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="28" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="30" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="29" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="31" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="26" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Percent" xfId="16" builtinId="5"/>
+    <cellStyle name="Section Break" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Section Break: parent row" xfId="5" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Table title" xfId="13" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Title" xfId="17" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Title-2" xfId="58" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Total" xfId="33" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="30" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1421,8 +1445,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7543801" y="466725"/>
-          <a:ext cx="5448300" cy="6598232"/>
+          <a:off x="7372351" y="444500"/>
+          <a:ext cx="5295900" cy="6268032"/>
           <a:chOff x="7534276" y="0"/>
           <a:chExt cx="5448300" cy="6598232"/>
         </a:xfrm>
@@ -2239,7 +2263,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2559,215 +2583,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="132.28515625" customWidth="1"/>
+    <col min="2" max="2" width="132.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="5">
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="5">
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B18" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="9">
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B20" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" s="9">
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B32" s="9">
         <v>2014</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B33" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B34" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B35" s="8"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="36" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="8"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>45</v>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{25C264B1-AF1E-490B-85D7-36E77BC789F2}"/>
-    <hyperlink ref="B27" r:id="rId2" xr:uid="{F3C9D0B8-A0BE-4BCC-8A76-AFE8441668D1}"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B27" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -2775,32 +2832,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E213073A-4DEC-4E38-B6FA-D48E27869689}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="42"/>
       <c r="R1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R2" t="s">
+    <row r="45" spans="22:23" x14ac:dyDescent="0.35">
+      <c r="V45" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="45" spans="22:23" x14ac:dyDescent="0.25">
-      <c r="V45" s="6" t="s">
+      <c r="W45" t="s">
         <v>86</v>
-      </c>
-      <c r="W45" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2810,57 +2867,57 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7449485A-9BBA-4FE7-AF5D-D63EA7CC6834}">
-  <dimension ref="A1:I57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="18"/>
       <c r="G2" s="25"/>
       <c r="H2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>44</v>
       </c>
       <c r="G3" s="36"/>
       <c r="H3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="21">
         <v>10.8</v>
@@ -2870,12 +2927,12 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="21">
         <v>10.9</v>
@@ -2885,12 +2942,12 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="21">
         <v>12.4</v>
@@ -2900,12 +2957,12 @@
         <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="21">
         <v>11.4</v>
@@ -2915,10 +2972,10 @@
         <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -2927,27 +2984,27 @@
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
     </row>
-    <row r="11" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="45.5" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>42</v>
-      </c>
       <c r="D11" s="30"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="25">
         <v>20.8</v>
@@ -2957,9 +3014,9 @@
       </c>
       <c r="D12" s="31"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="21">
         <v>16.201000000000001</v>
@@ -2969,9 +3026,9 @@
       </c>
       <c r="D13" s="32"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="21">
         <v>12.013999999999999</v>
@@ -2981,9 +3038,9 @@
       </c>
       <c r="D14" s="32"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="21">
         <v>11.443</v>
@@ -2993,9 +3050,9 @@
       </c>
       <c r="D15" s="32"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="21">
         <v>7.915</v>
@@ -3005,9 +3062,9 @@
       </c>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="27">
         <v>10.823</v>
@@ -3018,9 +3075,9 @@
       </c>
       <c r="D17" s="31"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="26">
         <f>C17-C12</f>
@@ -3028,40 +3085,40 @@
       </c>
       <c r="D18" s="33"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="34">
         <f>ROUND(B12,0)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="34">
         <f>ROUND(SUMPRODUCT(B13:B16,C13:C16)/C18,0)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>1</v>
       </c>
@@ -3070,38 +3127,38 @@
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="C29" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="19">
         <v>30</v>
       </c>
       <c r="C30" s="19"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="19">
         <v>15</v>
       </c>
       <c r="C31" s="19"/>
     </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="40">
         <v>11.4</v>
@@ -3110,9 +3167,9 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" s="40">
         <v>20</v>
@@ -3121,9 +3178,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34" s="40">
         <v>25</v>
@@ -3132,9 +3189,9 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="40">
         <v>20</v>
@@ -3143,9 +3200,9 @@
         <v>3401</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="40">
         <v>30</v>
@@ -3156,9 +3213,9 @@
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" s="40">
         <v>34</v>
@@ -3169,9 +3226,9 @@
       <c r="G37" s="23"/>
       <c r="I37" s="38"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" s="40">
         <v>21</v>
@@ -3183,9 +3240,9 @@
       <c r="H38" s="38"/>
       <c r="I38" s="39"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="40">
         <v>17</v>
@@ -3196,9 +3253,9 @@
       <c r="F39" s="37"/>
       <c r="G39" s="23"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" s="40">
         <v>22</v>
@@ -3208,9 +3265,9 @@
       </c>
       <c r="G40" s="29"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" s="40">
         <v>24</v>
@@ -3220,9 +3277,9 @@
       </c>
       <c r="F41" s="29"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B42" s="40">
         <v>12</v>
@@ -3232,9 +3289,9 @@
       </c>
       <c r="F42" s="29"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B43" s="40">
         <v>30</v>
@@ -3244,9 +3301,9 @@
       </c>
       <c r="F43" s="29"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="34">
         <f>ROUND(SUMPRODUCT(B32:B43,C32:C43)/C44,0)</f>
@@ -3257,12 +3314,12 @@
         <v>57516</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>0</v>
       </c>
@@ -3271,15 +3328,15 @@
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="19" t="s">
         <v>11</v>
       </c>
@@ -3287,7 +3344,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="19" t="s">
         <v>10</v>
       </c>
@@ -3295,7 +3352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>7</v>
       </c>
@@ -3303,20 +3360,20 @@
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="19" t="s">
         <v>75</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>76</v>
       </c>
       <c r="B57" s="25">
         <v>9.0500000000000007</v>
@@ -3326,8 +3383,93 @@
         <v>9</v>
       </c>
     </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>13</v>
+      </c>
+      <c r="C61">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>23</v>
+      </c>
+      <c r="C62">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>24</v>
+      </c>
+      <c r="C63">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>34</v>
+      </c>
+      <c r="C64">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>33</v>
+      </c>
+      <c r="C65">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66">
+        <v>17</v>
+      </c>
+      <c r="C66">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3339,17 +3481,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
@@ -3360,20 +3502,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="15">
-        <f>Data!C4</f>
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C2" s="15">
         <f>Data!C5</f>
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3382,11 +3523,11 @@
         <v>11</v>
       </c>
       <c r="C3" s="15">
-        <f>Data!C6</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <f>Data!C62</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3399,7 +3540,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -3412,7 +3553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -3425,7 +3566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>

--- a/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
+++ b/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\AVL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\trans\AVL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E8E3B4-90F7-47CE-B7D9-D72B535B6C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FCD5EF-BAFF-4FF2-BC04-1FC171B6B093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <sheet name="Sheet1" sheetId="12" r:id="rId5"/>
     <sheet name="NTS 1-20" sheetId="11" r:id="rId6"/>
     <sheet name="Calculations" sheetId="2" r:id="rId7"/>
-    <sheet name="AVL" sheetId="10" r:id="rId8"/>
+    <sheet name="SoCDTtiNTY-psgr" sheetId="19" r:id="rId8"/>
+    <sheet name="SoCDTtiNTY-frgt" sheetId="20" r:id="rId9"/>
+    <sheet name="AVL" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="861">
   <si>
     <t>Car Avg Lifetime, years (Page 22, Table 7)</t>
   </si>
@@ -2628,6 +2630,30 @@
   </si>
   <si>
     <t>We calibrate the value for passenger LDVs to match annual passenger LDV sales in the model, which were roughly 15 million in 2021.</t>
+  </si>
+  <si>
+    <t>Share that is New (dimensionless)</t>
+  </si>
+  <si>
+    <t>battery electric vehicle</t>
+  </si>
+  <si>
+    <t>natural gas vehicle</t>
+  </si>
+  <si>
+    <t>gasoline vehicle</t>
+  </si>
+  <si>
+    <t>diesel vehicle</t>
+  </si>
+  <si>
+    <t>plugin hybrid vehicle</t>
+  </si>
+  <si>
+    <t>LPG vehicle</t>
+  </si>
+  <si>
+    <t>hydrogen vehicle</t>
   </si>
 </sst>
 </file>
@@ -3714,7 +3740,17 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3729,16 +3765,6 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="62">
     <cellStyle name="20% - Accent1" xfId="35" builtinId="30" customBuiltin="1"/>
@@ -4136,21 +4162,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="132.28515625" customWidth="1"/>
+    <col min="2" max="2" width="132.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -4158,207 +4184,207 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="83" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="75" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="9">
         <v>2016</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="9">
         <v>2015</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="9">
         <v>2019</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="9">
         <v>2013</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B33" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B37" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B40" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B42" s="9">
         <v>2009</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B44" s="19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -4374,6 +4400,118 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="70">
+        <f>ROUND(1/'SoCDTtiNTY-psgr'!B2,0)</f>
+        <v>26</v>
+      </c>
+      <c r="C2" s="70">
+        <f>ROUND(1/'SoCDTtiNTY-frgt'!B2,0)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="74">
+        <f>ROUND(1/'SoCDTtiNTY-psgr'!B3,0)</f>
+        <v>24</v>
+      </c>
+      <c r="C3" s="70">
+        <f>ROUND(1/'SoCDTtiNTY-frgt'!B3,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="37">
+        <f>ROUND(Calculations!A16,0)</f>
+        <v>24</v>
+      </c>
+      <c r="C4" s="37">
+        <f>B4</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <f>ROUND(Calculations!C22,0)</f>
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <f>B5</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <f>ROUND(Calculations!C28,0)</f>
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <f>B6</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <f>ROUND(Calculations!A48,0)</f>
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <f>B7</f>
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA96C9F-D5CD-49A6-8F43-ABDD7F5942E5}">
   <dimension ref="A1:AJ67"/>
@@ -4382,29 +4520,29 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>99</v>
       </c>
@@ -4511,17 +4649,17 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -4628,7 +4766,7 @@
         <v>-2.3E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -4735,7 +4873,7 @@
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>112</v>
       </c>
@@ -4842,12 +4980,12 @@
         <v>-2.3E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -4954,7 +5092,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -5061,7 +5199,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -5168,7 +5306,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -5275,7 +5413,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -5382,7 +5520,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -5489,7 +5627,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>133</v>
       </c>
@@ -5596,7 +5734,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>137</v>
       </c>
@@ -5703,7 +5841,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>140</v>
       </c>
@@ -5810,7 +5948,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -5917,7 +6055,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>146</v>
       </c>
@@ -6024,7 +6162,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>149</v>
       </c>
@@ -6131,7 +6269,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>151</v>
       </c>
@@ -6238,7 +6376,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>154</v>
       </c>
@@ -6345,7 +6483,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>157</v>
       </c>
@@ -6452,7 +6590,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>160</v>
       </c>
@@ -6559,7 +6697,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>164</v>
       </c>
@@ -6666,17 +6804,17 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>105</v>
       </c>
@@ -6783,7 +6921,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -6890,7 +7028,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>173</v>
       </c>
@@ -6997,12 +7135,12 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>116</v>
       </c>
@@ -7109,7 +7247,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -7216,7 +7354,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>122</v>
       </c>
@@ -7323,7 +7461,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>125</v>
       </c>
@@ -7430,7 +7568,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>128</v>
       </c>
@@ -7537,7 +7675,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>131</v>
       </c>
@@ -7644,7 +7782,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>133</v>
       </c>
@@ -7751,7 +7889,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>137</v>
       </c>
@@ -7858,7 +7996,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>140</v>
       </c>
@@ -7965,7 +8103,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>143</v>
       </c>
@@ -8072,7 +8210,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>146</v>
       </c>
@@ -8179,7 +8317,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>149</v>
       </c>
@@ -8286,7 +8424,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>151</v>
       </c>
@@ -8393,7 +8531,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>154</v>
       </c>
@@ -8500,7 +8638,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>203</v>
       </c>
@@ -8607,7 +8745,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>206</v>
       </c>
@@ -8714,7 +8852,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>209</v>
       </c>
@@ -8821,7 +8959,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>212</v>
       </c>
@@ -8928,7 +9066,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>215</v>
       </c>
@@ -9035,7 +9173,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>218</v>
       </c>
@@ -9142,7 +9280,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>221</v>
       </c>
@@ -9150,7 +9288,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>223</v>
       </c>
@@ -9257,7 +9395,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>226</v>
       </c>
@@ -9364,7 +9502,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>229</v>
       </c>
@@ -9471,7 +9609,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>232</v>
       </c>
@@ -9578,7 +9716,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>235</v>
       </c>
@@ -9685,7 +9823,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>238</v>
       </c>
@@ -9792,7 +9930,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>241</v>
       </c>
@@ -9899,7 +10037,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>244</v>
       </c>
@@ -10006,7 +10144,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>247</v>
       </c>
@@ -10113,7 +10251,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>250</v>
       </c>
@@ -10220,7 +10358,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>253</v>
       </c>
@@ -10327,7 +10465,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>256</v>
       </c>
@@ -10443,31 +10581,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33927D89-D419-41FE-9E53-4D84EE260AF9}">
   <dimension ref="A1:AJ252"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" workbookViewId="0"/>
+    <sheetView topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="E207" sqref="E207"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>99</v>
       </c>
@@ -10574,22 +10714,22 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>264</v>
       </c>
@@ -10696,7 +10836,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>268</v>
       </c>
@@ -10803,7 +10943,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>271</v>
       </c>
@@ -10910,7 +11050,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>274</v>
       </c>
@@ -11017,7 +11157,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>277</v>
       </c>
@@ -11124,7 +11264,7 @@
         <v>-3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>232</v>
       </c>
@@ -11231,7 +11371,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>282</v>
       </c>
@@ -11338,7 +11478,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>285</v>
       </c>
@@ -11445,7 +11585,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>244</v>
       </c>
@@ -11552,7 +11692,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>290</v>
       </c>
@@ -11659,12 +11799,12 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>264</v>
       </c>
@@ -11771,7 +11911,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>268</v>
       </c>
@@ -11878,7 +12018,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>271</v>
       </c>
@@ -11985,7 +12125,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>274</v>
       </c>
@@ -12092,7 +12232,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>277</v>
       </c>
@@ -12199,7 +12339,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>232</v>
       </c>
@@ -12306,7 +12446,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>282</v>
       </c>
@@ -12413,7 +12553,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>285</v>
       </c>
@@ -12520,7 +12660,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>244</v>
       </c>
@@ -12627,7 +12767,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>312</v>
       </c>
@@ -12734,12 +12874,12 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>264</v>
       </c>
@@ -12846,7 +12986,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>268</v>
       </c>
@@ -12953,7 +13093,7 @@
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>271</v>
       </c>
@@ -13060,7 +13200,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>274</v>
       </c>
@@ -13167,7 +13307,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>277</v>
       </c>
@@ -13274,7 +13414,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>232</v>
       </c>
@@ -13381,7 +13521,7 @@
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>282</v>
       </c>
@@ -13488,7 +13628,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>285</v>
       </c>
@@ -13595,7 +13735,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>244</v>
       </c>
@@ -13702,7 +13842,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>334</v>
       </c>
@@ -13809,7 +13949,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>337</v>
       </c>
@@ -13916,17 +14056,17 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>264</v>
       </c>
@@ -14033,7 +14173,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>268</v>
       </c>
@@ -14140,7 +14280,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>271</v>
       </c>
@@ -14247,7 +14387,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>274</v>
       </c>
@@ -14354,7 +14494,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>277</v>
       </c>
@@ -14461,7 +14601,7 @@
         <v>-3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>232</v>
       </c>
@@ -14568,7 +14708,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>282</v>
       </c>
@@ -14675,7 +14815,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>285</v>
       </c>
@@ -14782,7 +14922,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>244</v>
       </c>
@@ -14889,7 +15029,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>290</v>
       </c>
@@ -14996,12 +15136,12 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>264</v>
       </c>
@@ -15108,7 +15248,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>268</v>
       </c>
@@ -15215,7 +15355,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>271</v>
       </c>
@@ -15322,7 +15462,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>274</v>
       </c>
@@ -15429,7 +15569,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>277</v>
       </c>
@@ -15536,7 +15676,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>232</v>
       </c>
@@ -15643,7 +15783,7 @@
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>282</v>
       </c>
@@ -15750,7 +15890,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>285</v>
       </c>
@@ -15857,7 +15997,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>244</v>
       </c>
@@ -15964,7 +16104,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>312</v>
       </c>
@@ -16071,12 +16211,12 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>264</v>
       </c>
@@ -16183,7 +16323,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>268</v>
       </c>
@@ -16290,7 +16430,7 @@
         <v>-4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>271</v>
       </c>
@@ -16397,7 +16537,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>274</v>
       </c>
@@ -16504,7 +16644,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>277</v>
       </c>
@@ -16611,7 +16751,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>232</v>
       </c>
@@ -16718,7 +16858,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>282</v>
       </c>
@@ -16825,7 +16965,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>285</v>
       </c>
@@ -16932,7 +17072,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>244</v>
       </c>
@@ -17039,7 +17179,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>334</v>
       </c>
@@ -17146,7 +17286,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>263</v>
       </c>
@@ -17157,7 +17297,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>264</v>
       </c>
@@ -17264,7 +17404,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>268</v>
       </c>
@@ -17371,7 +17511,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>271</v>
       </c>
@@ -17478,7 +17618,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>274</v>
       </c>
@@ -17585,7 +17725,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>277</v>
       </c>
@@ -17692,7 +17832,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>232</v>
       </c>
@@ -17799,7 +17939,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>282</v>
       </c>
@@ -17906,7 +18046,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>285</v>
       </c>
@@ -18013,7 +18153,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>244</v>
       </c>
@@ -18120,7 +18260,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>422</v>
       </c>
@@ -18227,17 +18367,17 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>264</v>
       </c>
@@ -18344,7 +18484,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>268</v>
       </c>
@@ -18451,7 +18591,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>271</v>
       </c>
@@ -18558,7 +18698,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>274</v>
       </c>
@@ -18665,7 +18805,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>277</v>
       </c>
@@ -18772,7 +18912,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>232</v>
       </c>
@@ -18879,7 +19019,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>282</v>
       </c>
@@ -18986,7 +19126,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>285</v>
       </c>
@@ -19093,7 +19233,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>244</v>
       </c>
@@ -19200,7 +19340,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>446</v>
       </c>
@@ -19304,12 +19444,12 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>264</v>
       </c>
@@ -19416,7 +19556,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>268</v>
       </c>
@@ -19523,7 +19663,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>271</v>
       </c>
@@ -19630,7 +19770,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>274</v>
       </c>
@@ -19737,7 +19877,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>277</v>
       </c>
@@ -19844,7 +19984,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>232</v>
       </c>
@@ -19951,7 +20091,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>282</v>
       </c>
@@ -20058,7 +20198,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>285</v>
       </c>
@@ -20165,7 +20305,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>244</v>
       </c>
@@ -20272,7 +20412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>468</v>
       </c>
@@ -20376,12 +20516,12 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>264</v>
       </c>
@@ -20488,7 +20628,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>268</v>
       </c>
@@ -20595,7 +20735,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>271</v>
       </c>
@@ -20702,7 +20842,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>274</v>
       </c>
@@ -20809,7 +20949,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>277</v>
       </c>
@@ -20916,7 +21056,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>232</v>
       </c>
@@ -21023,7 +21163,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>282</v>
       </c>
@@ -21130,7 +21270,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>285</v>
       </c>
@@ -21237,7 +21377,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>244</v>
       </c>
@@ -21344,7 +21484,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>489</v>
       </c>
@@ -21448,7 +21588,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>492</v>
       </c>
@@ -21552,17 +21692,17 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>264</v>
       </c>
@@ -21669,7 +21809,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>268</v>
       </c>
@@ -21776,7 +21916,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>271</v>
       </c>
@@ -21883,7 +22023,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>274</v>
       </c>
@@ -21990,7 +22130,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>277</v>
       </c>
@@ -22097,7 +22237,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>232</v>
       </c>
@@ -22204,7 +22344,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>282</v>
       </c>
@@ -22311,7 +22451,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>285</v>
       </c>
@@ -22418,7 +22558,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>244</v>
       </c>
@@ -22525,7 +22665,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>290</v>
       </c>
@@ -22632,12 +22772,12 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>264</v>
       </c>
@@ -22744,7 +22884,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>268</v>
       </c>
@@ -22851,7 +22991,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>271</v>
       </c>
@@ -22958,7 +23098,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>274</v>
       </c>
@@ -23065,7 +23205,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>277</v>
       </c>
@@ -23172,7 +23312,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>232</v>
       </c>
@@ -23279,7 +23419,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>282</v>
       </c>
@@ -23386,7 +23526,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>285</v>
       </c>
@@ -23493,7 +23633,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>244</v>
       </c>
@@ -23600,7 +23740,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>312</v>
       </c>
@@ -23707,12 +23847,12 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>264</v>
       </c>
@@ -23819,7 +23959,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>268</v>
       </c>
@@ -23926,7 +24066,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>271</v>
       </c>
@@ -24033,7 +24173,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>274</v>
       </c>
@@ -24140,7 +24280,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>277</v>
       </c>
@@ -24247,7 +24387,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>232</v>
       </c>
@@ -24354,7 +24494,7 @@
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>282</v>
       </c>
@@ -24461,7 +24601,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>285</v>
       </c>
@@ -24568,7 +24708,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>244</v>
       </c>
@@ -24675,7 +24815,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>334</v>
       </c>
@@ -24782,7 +24922,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>557</v>
       </c>
@@ -24889,22 +25029,22 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>264</v>
       </c>
@@ -25011,7 +25151,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>268</v>
       </c>
@@ -25118,7 +25258,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>271</v>
       </c>
@@ -25225,7 +25365,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>274</v>
       </c>
@@ -25332,7 +25472,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>277</v>
       </c>
@@ -25439,7 +25579,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>232</v>
       </c>
@@ -25546,7 +25686,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>282</v>
       </c>
@@ -25653,7 +25793,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>285</v>
       </c>
@@ -25760,7 +25900,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>244</v>
       </c>
@@ -25867,7 +26007,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>446</v>
       </c>
@@ -25971,12 +26111,12 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>264</v>
       </c>
@@ -26083,7 +26223,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>268</v>
       </c>
@@ -26190,7 +26330,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>271</v>
       </c>
@@ -26297,7 +26437,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>274</v>
       </c>
@@ -26404,7 +26544,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>277</v>
       </c>
@@ -26511,7 +26651,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>232</v>
       </c>
@@ -26618,7 +26758,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>282</v>
       </c>
@@ -26725,7 +26865,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>285</v>
       </c>
@@ -26832,7 +26972,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>244</v>
       </c>
@@ -26939,7 +27079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>468</v>
       </c>
@@ -27043,12 +27183,12 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>264</v>
       </c>
@@ -27155,7 +27295,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>268</v>
       </c>
@@ -27262,7 +27402,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>271</v>
       </c>
@@ -27369,7 +27509,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>274</v>
       </c>
@@ -27476,7 +27616,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>277</v>
       </c>
@@ -27583,7 +27723,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>232</v>
       </c>
@@ -27690,7 +27830,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>282</v>
       </c>
@@ -27797,7 +27937,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>285</v>
       </c>
@@ -27904,7 +28044,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>244</v>
       </c>
@@ -28011,7 +28151,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>489</v>
       </c>
@@ -28115,7 +28255,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>492</v>
       </c>
@@ -28219,17 +28359,17 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>264</v>
       </c>
@@ -28336,7 +28476,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>268</v>
       </c>
@@ -28443,7 +28583,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>271</v>
       </c>
@@ -28550,7 +28690,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>274</v>
       </c>
@@ -28657,7 +28797,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>277</v>
       </c>
@@ -28764,7 +28904,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>232</v>
       </c>
@@ -28871,7 +29011,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>282</v>
       </c>
@@ -28978,7 +29118,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>285</v>
       </c>
@@ -29085,7 +29225,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>244</v>
       </c>
@@ -29192,7 +29332,7 @@
         <v>-1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>290</v>
       </c>
@@ -29299,12 +29439,12 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>264</v>
       </c>
@@ -29411,7 +29551,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>268</v>
       </c>
@@ -29518,7 +29658,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>271</v>
       </c>
@@ -29625,7 +29765,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>274</v>
       </c>
@@ -29732,7 +29872,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>277</v>
       </c>
@@ -29839,7 +29979,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>232</v>
       </c>
@@ -29946,7 +30086,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>282</v>
       </c>
@@ -30053,7 +30193,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>285</v>
       </c>
@@ -30160,7 +30300,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>244</v>
       </c>
@@ -30267,7 +30407,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>312</v>
       </c>
@@ -30374,12 +30514,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>264</v>
       </c>
@@ -30486,7 +30626,7 @@
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>268</v>
       </c>
@@ -30593,7 +30733,7 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>271</v>
       </c>
@@ -30700,7 +30840,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>274</v>
       </c>
@@ -30807,7 +30947,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>277</v>
       </c>
@@ -30914,7 +31054,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>232</v>
       </c>
@@ -31021,7 +31161,7 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>282</v>
       </c>
@@ -31128,7 +31268,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>285</v>
       </c>
@@ -31235,7 +31375,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>244</v>
       </c>
@@ -31342,7 +31482,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>334</v>
       </c>
@@ -31449,7 +31589,7 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>221</v>
       </c>
@@ -31556,12 +31696,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>687</v>
       </c>
@@ -31668,7 +31808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>691</v>
       </c>
@@ -31775,12 +31915,12 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>696</v>
       </c>
@@ -31887,7 +32027,7 @@
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>699</v>
       </c>
@@ -31994,7 +32134,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>702</v>
       </c>
@@ -32101,7 +32241,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>705</v>
       </c>
@@ -32208,12 +32348,12 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>709</v>
       </c>
@@ -32320,7 +32460,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>691</v>
       </c>
@@ -32427,12 +32567,12 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>696</v>
       </c>
@@ -32539,7 +32679,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>699</v>
       </c>
@@ -32646,7 +32786,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>702</v>
       </c>
@@ -32753,7 +32893,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>705</v>
       </c>
@@ -32860,12 +33000,12 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>723</v>
       </c>
@@ -32972,7 +33112,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>727</v>
       </c>
@@ -33079,7 +33219,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>730</v>
       </c>
@@ -33186,12 +33326,12 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>696</v>
       </c>
@@ -33298,7 +33438,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>699</v>
       </c>
@@ -33405,7 +33545,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>702</v>
       </c>
@@ -33512,7 +33652,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>705</v>
       </c>
@@ -33630,29 +33770,29 @@
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>99</v>
       </c>
@@ -33759,12 +33899,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -33772,7 +33912,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -33879,7 +34019,7 @@
         <v>-2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -33986,7 +34126,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>112</v>
       </c>
@@ -34093,12 +34233,12 @@
         <v>-2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -34205,7 +34345,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -34312,7 +34452,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -34419,7 +34559,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -34526,7 +34666,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -34633,7 +34773,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -34740,7 +34880,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>133</v>
       </c>
@@ -34847,7 +34987,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>137</v>
       </c>
@@ -34954,7 +35094,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>140</v>
       </c>
@@ -35061,7 +35201,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -35168,7 +35308,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>146</v>
       </c>
@@ -35275,7 +35415,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>149</v>
       </c>
@@ -35382,7 +35522,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>151</v>
       </c>
@@ -35489,7 +35629,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>154</v>
       </c>
@@ -35596,7 +35736,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>157</v>
       </c>
@@ -35703,7 +35843,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>160</v>
       </c>
@@ -35810,7 +35950,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>164</v>
       </c>
@@ -35917,17 +36057,17 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>105</v>
       </c>
@@ -36034,7 +36174,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -36141,7 +36281,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>173</v>
       </c>
@@ -36248,12 +36388,12 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>116</v>
       </c>
@@ -36360,7 +36500,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -36467,7 +36607,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>122</v>
       </c>
@@ -36574,7 +36714,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>125</v>
       </c>
@@ -36681,7 +36821,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>128</v>
       </c>
@@ -36788,7 +36928,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>131</v>
       </c>
@@ -36895,7 +37035,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>133</v>
       </c>
@@ -37002,7 +37142,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>137</v>
       </c>
@@ -37109,7 +37249,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>140</v>
       </c>
@@ -37216,7 +37356,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>143</v>
       </c>
@@ -37323,7 +37463,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>146</v>
       </c>
@@ -37430,7 +37570,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>149</v>
       </c>
@@ -37537,7 +37677,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>151</v>
       </c>
@@ -37644,7 +37784,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>154</v>
       </c>
@@ -37751,7 +37891,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>203</v>
       </c>
@@ -37858,7 +37998,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>206</v>
       </c>
@@ -37965,7 +38105,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>209</v>
       </c>
@@ -38072,7 +38212,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>820</v>
       </c>
@@ -38179,12 +38319,12 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>268</v>
       </c>
@@ -38291,7 +38431,7 @@
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>264</v>
       </c>
@@ -38398,7 +38538,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>271</v>
       </c>
@@ -38505,7 +38645,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>274</v>
       </c>
@@ -38612,7 +38752,7 @@
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>277</v>
       </c>
@@ -38719,7 +38859,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>232</v>
       </c>
@@ -38826,7 +38966,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>285</v>
       </c>
@@ -38933,7 +39073,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>282</v>
       </c>
@@ -39040,7 +39180,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>244</v>
       </c>
@@ -39147,7 +39287,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>842</v>
       </c>
@@ -39265,7 +39405,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39276,75 +39416,75 @@
   <dimension ref="A1:BB61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AB1"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="27" width="7.7109375" customWidth="1"/>
-    <col min="28" max="28" width="7.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="27" width="7.7265625" customWidth="1"/>
+    <col min="28" max="28" width="7.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:54" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="77"/>
-      <c r="AM1" s="77"/>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="77"/>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="77"/>
-      <c r="AR1" s="77"/>
-      <c r="AS1" s="77"/>
-      <c r="AT1" s="77"/>
-      <c r="AU1" s="77"/>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="77"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="77"/>
-      <c r="BB1" s="77"/>
-    </row>
-    <row r="2" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="81"/>
+      <c r="AQ1" s="81"/>
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="81"/>
+      <c r="AT1" s="81"/>
+      <c r="AU1" s="81"/>
+      <c r="AV1" s="81"/>
+      <c r="AW1" s="81"/>
+      <c r="AX1" s="81"/>
+      <c r="AY1" s="81"/>
+      <c r="AZ1" s="81"/>
+      <c r="BA1" s="81"/>
+      <c r="BB1" s="81"/>
+    </row>
+    <row r="2" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38"/>
       <c r="B2" s="39">
         <v>1980</v>
@@ -39454,7 +39594,7 @@
       <c r="BA2" s="45"/>
       <c r="BB2" s="46"/>
     </row>
-    <row r="3" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>61</v>
       </c>
@@ -39566,7 +39706,7 @@
       <c r="BA3" s="48"/>
       <c r="BB3" s="48"/>
     </row>
-    <row r="4" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="50" t="s">
         <v>63</v>
       </c>
@@ -39678,7 +39818,7 @@
       <c r="BA4" s="52"/>
       <c r="BB4" s="52"/>
     </row>
-    <row r="5" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50" t="s">
         <v>64</v>
       </c>
@@ -39790,7 +39930,7 @@
       <c r="BA5" s="52"/>
       <c r="BB5" s="52"/>
     </row>
-    <row r="6" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="50" t="s">
         <v>65</v>
       </c>
@@ -39902,7 +40042,7 @@
       <c r="BA6" s="52"/>
       <c r="BB6" s="52"/>
     </row>
-    <row r="7" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="50" t="s">
         <v>66</v>
       </c>
@@ -40014,7 +40154,7 @@
       <c r="BA7" s="52"/>
       <c r="BB7" s="52"/>
     </row>
-    <row r="8" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="50" t="s">
         <v>67</v>
       </c>
@@ -40126,7 +40266,7 @@
       <c r="BA8" s="52"/>
       <c r="BB8" s="52"/>
     </row>
-    <row r="9" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="53" t="s">
         <v>68</v>
       </c>
@@ -40184,7 +40324,7 @@
       <c r="BA9" s="54"/>
       <c r="BB9" s="54"/>
     </row>
-    <row r="10" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="50" t="s">
         <v>63</v>
       </c>
@@ -40298,7 +40438,7 @@
       <c r="BA10" s="56"/>
       <c r="BB10" s="56"/>
     </row>
-    <row r="11" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="50" t="s">
         <v>64</v>
       </c>
@@ -40410,7 +40550,7 @@
       <c r="BA11" s="56"/>
       <c r="BB11" s="56"/>
     </row>
-    <row r="12" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="50" t="s">
         <v>65</v>
       </c>
@@ -40522,7 +40662,7 @@
       <c r="BA12" s="56"/>
       <c r="BB12" s="56"/>
     </row>
-    <row r="13" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="50" t="s">
         <v>66</v>
       </c>
@@ -40634,7 +40774,7 @@
       <c r="BA13" s="56"/>
       <c r="BB13" s="56"/>
     </row>
-    <row r="14" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="50" t="s">
         <v>67</v>
       </c>
@@ -40746,7 +40886,7 @@
       <c r="BA14" s="56"/>
       <c r="BB14" s="56"/>
     </row>
-    <row r="15" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="47" t="s">
         <v>69</v>
       </c>
@@ -40804,7 +40944,7 @@
       <c r="BA15" s="58"/>
       <c r="BB15" s="58"/>
     </row>
-    <row r="16" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="50" t="s">
         <v>63</v>
       </c>
@@ -40916,7 +41056,7 @@
       <c r="BA16" s="59"/>
       <c r="BB16" s="59"/>
     </row>
-    <row r="17" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="50" t="s">
         <v>64</v>
       </c>
@@ -41028,7 +41168,7 @@
       <c r="BA17" s="59"/>
       <c r="BB17" s="59"/>
     </row>
-    <row r="18" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="50" t="s">
         <v>65</v>
       </c>
@@ -41140,7 +41280,7 @@
       <c r="BA18" s="59"/>
       <c r="BB18" s="59"/>
     </row>
-    <row r="19" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="50" t="s">
         <v>66</v>
       </c>
@@ -41252,7 +41392,7 @@
       <c r="BA19" s="59"/>
       <c r="BB19" s="59"/>
     </row>
-    <row r="20" spans="1:54" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:54" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="60" t="s">
         <v>67</v>
       </c>
@@ -41364,233 +41504,233 @@
       <c r="BA20" s="59"/>
       <c r="BB20" s="59"/>
     </row>
-    <row r="21" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="78" t="s">
+    <row r="21" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="78"/>
-    </row>
-    <row r="22" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="79"/>
-    </row>
-    <row r="23" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="79" t="s">
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="82"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="82"/>
+    </row>
+    <row r="22" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="83"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="83"/>
+    </row>
+    <row r="23" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-    </row>
-    <row r="24" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+    </row>
+    <row r="24" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="75"/>
-    </row>
-    <row r="25" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="75" t="s">
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="76"/>
+    </row>
+    <row r="25" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="75"/>
-    </row>
-    <row r="26" spans="1:54" s="63" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="80" t="s">
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="76"/>
+    </row>
+    <row r="26" spans="1:54" s="63" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="80"/>
-    </row>
-    <row r="27" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="80"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="80"/>
-    </row>
-    <row r="28" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="81" t="s">
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="77"/>
+    </row>
+    <row r="27" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="77"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+    </row>
+    <row r="28" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="81"/>
-    </row>
-    <row r="29" spans="1:54" s="63" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="82" t="s">
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="78"/>
+    </row>
+    <row r="29" spans="1:54" s="63" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="82"/>
-    </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
+    </row>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A25:Q25"/>
-    <mergeCell ref="A26:Q26"/>
-    <mergeCell ref="A27:Q27"/>
-    <mergeCell ref="A28:Q28"/>
-    <mergeCell ref="A29:Q29"/>
     <mergeCell ref="A24:Q24"/>
     <mergeCell ref="A1:AB1"/>
     <mergeCell ref="AC1:BB1"/>
     <mergeCell ref="A21:Q21"/>
     <mergeCell ref="A22:Q22"/>
     <mergeCell ref="A23:Q23"/>
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A27:Q27"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="A29:Q29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41604,20 +41744,20 @@
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="3" customWidth="1"/>
-    <col min="6" max="14" width="9.140625" style="3"/>
-    <col min="15" max="15" width="15.42578125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="22.5703125" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="30.1796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.7265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.1796875" style="3" customWidth="1"/>
+    <col min="6" max="14" width="9.1796875" style="3"/>
+    <col min="15" max="15" width="15.453125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="22.54296875" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>48</v>
       </c>
@@ -41629,7 +41769,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -41653,7 +41793,7 @@
         <v>15397421.875</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>13</v>
       </c>
@@ -41680,7 +41820,7 @@
         <v>1420967.1940000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="O4" s="3" t="s">
         <v>847</v>
       </c>
@@ -41688,7 +41828,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>51</v>
       </c>
@@ -41700,7 +41840,7 @@
         <v>277987.51800000004</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>55</v>
       </c>
@@ -41715,7 +41855,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="68">
         <v>28</v>
       </c>
@@ -41730,7 +41870,7 @@
       </c>
       <c r="E7" s="67"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>52</v>
       </c>
@@ -41739,14 +41879,14 @@
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
     </row>
-    <row r="11" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
     </row>
-    <row r="12" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
@@ -41754,7 +41894,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>32</v>
       </c>
@@ -41762,7 +41902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="9" t="s">
         <v>34</v>
       </c>
@@ -41770,17 +41910,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="18">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>17</v>
       </c>
@@ -41789,7 +41929,7 @@
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>6</v>
       </c>
@@ -41800,7 +41940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -41811,7 +41951,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -41822,7 +41962,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22"/>
       <c r="B22" s="11" t="s">
         <v>22</v>
@@ -41831,17 +41971,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>9</v>
       </c>
@@ -41850,7 +41990,7 @@
       <c r="D26" s="34"/>
       <c r="E26" s="34"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="15" t="s">
         <v>6</v>
       </c>
@@ -41861,7 +42001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -41872,7 +42012,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
         <v>54</v>
       </c>
@@ -41881,7 +42021,7 @@
       <c r="D30" s="34"/>
       <c r="E30" s="34"/>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="21" t="s">
         <v>39</v>
       </c>
@@ -41898,7 +42038,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="20">
         <v>1997</v>
       </c>
@@ -41911,7 +42051,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="20">
         <v>1998</v>
       </c>
@@ -41930,7 +42070,7 @@
         <v>6.6484424338501588E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="20">
         <v>1999</v>
       </c>
@@ -41949,7 +42089,7 @@
         <v>2.9143636995467476E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="20">
         <v>2000</v>
       </c>
@@ -41968,7 +42108,7 @@
         <v>6.8191523924614153E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="20">
         <v>2001</v>
       </c>
@@ -41987,7 +42127,7 @@
         <v>4.0815360868813244E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="20">
         <v>2002</v>
       </c>
@@ -42006,7 +42146,7 @@
         <v>0.10769048766665149</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="20">
         <v>2003</v>
       </c>
@@ -42025,7 +42165,7 @@
         <v>5.9053805049687755E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="20">
         <v>2004</v>
       </c>
@@ -42044,7 +42184,7 @@
         <v>5.8670234757052138E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="20">
         <v>2005</v>
       </c>
@@ -42063,7 +42203,7 @@
         <v>6.1781753631599455E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="20">
         <v>2006</v>
       </c>
@@ -42082,7 +42222,7 @@
         <v>6.5906687839630079E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="25">
         <v>2007</v>
       </c>
@@ -42101,14 +42241,14 @@
         <v>5.9604038733197397E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -42116,7 +42256,7 @@
       <c r="C44"/>
       <c r="D44"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="28">
         <f>AVERAGE(E33:E42)</f>
         <v>5.8060812902328285E-2</v>
@@ -42125,13 +42265,13 @@
       <c r="C45"/>
       <c r="D45"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
     </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="36" t="s">
         <v>44</v>
       </c>
@@ -42139,7 +42279,7 @@
       <c r="C47"/>
       <c r="D47"/>
     </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="35">
         <f>1/A45</f>
         <v>17.22332068760786</v>
@@ -42157,108 +42297,406 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D32750-8D3C-4A88-9757-513D56EAFB13}">
   <sheetPr>
-    <tabColor theme="3"/>
+    <tabColor theme="2" tint="-9.9978637043366805E-2"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="8" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="30" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>854</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>855</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>856</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>857</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>858</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>859</v>
+      </c>
+      <c r="H1" s="72" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="70">
-        <v>17</v>
-      </c>
-      <c r="C2" s="70">
-        <f>Calculations!B3</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>3.8635512093079978E-2</v>
+      </c>
+      <c r="C2">
+        <v>3.8635512093079978E-2</v>
+      </c>
+      <c r="D2">
+        <v>3.8635512093079978E-2</v>
+      </c>
+      <c r="E2">
+        <v>3.8635512093079978E-2</v>
+      </c>
+      <c r="F2">
+        <v>3.8635512093079978E-2</v>
+      </c>
+      <c r="G2">
+        <v>3.8635512093079978E-2</v>
+      </c>
+      <c r="H2">
+        <v>3.8635512093079978E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="74">
-        <f>Calculations!C7</f>
-        <v>23</v>
-      </c>
-      <c r="C3" s="70">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>4.2204776033314607E-2</v>
+      </c>
+      <c r="C3">
+        <v>4.2204776033314607E-2</v>
+      </c>
+      <c r="D3">
+        <v>4.2204776033314607E-2</v>
+      </c>
+      <c r="E3">
+        <v>4.2204776033314607E-2</v>
+      </c>
+      <c r="F3">
+        <v>4.2204776033314607E-2</v>
+      </c>
+      <c r="G3">
+        <v>4.2204776033314607E-2</v>
+      </c>
+      <c r="H3">
+        <v>4.2204776033314607E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="37">
-        <f>ROUND(Calculations!A16,0)</f>
-        <v>24</v>
-      </c>
-      <c r="C4" s="37">
-        <f>B4</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="E4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="F4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="G4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="H4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5">
-        <f>ROUND(Calculations!C22,0)</f>
-        <v>34</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="C5">
-        <f>B5</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <f>ROUND(Calculations!C28,0)</f>
-        <v>33</v>
+        <v>2.9819999999999999E-2</v>
       </c>
       <c r="C6">
-        <f>B6</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="F6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="H6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>54</v>
       </c>
       <c r="B7">
-        <f>ROUND(Calculations!A48,0)</f>
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="C7">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="D7">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="E7">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="F7">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="G7">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="H7">
+        <v>5.8500000000000003E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB51AB13-CA33-4AF7-A6AD-EAAE58A07EEC}">
+  <sheetPr>
+    <tabColor theme="2" tint="-9.9978637043366805E-2"/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="8" width="14.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="30" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="69" t="s">
+        <v>853</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>854</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>855</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>856</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>857</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>858</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>859</v>
+      </c>
+      <c r="H1" s="72" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>5.190582462648987E-2</v>
+      </c>
+      <c r="C2">
+        <v>5.190582462648987E-2</v>
+      </c>
+      <c r="D2">
+        <v>5.190582462648987E-2</v>
+      </c>
+      <c r="E2">
+        <v>5.190582462648987E-2</v>
+      </c>
+      <c r="F2">
+        <v>5.190582462648987E-2</v>
+      </c>
+      <c r="G2">
+        <v>5.190582462648987E-2</v>
+      </c>
+      <c r="H2">
+        <v>5.190582462648987E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>5.0582439096787349E-2</v>
+      </c>
+      <c r="C3">
+        <v>5.0582439096787349E-2</v>
+      </c>
+      <c r="D3">
+        <v>5.0582439096787349E-2</v>
+      </c>
+      <c r="E3">
+        <v>5.0582439096787349E-2</v>
+      </c>
+      <c r="F3">
+        <v>5.0582439096787349E-2</v>
+      </c>
+      <c r="G3">
+        <v>5.0582439096787349E-2</v>
+      </c>
+      <c r="H3">
+        <v>5.0582439096787349E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
+      <c r="B5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="C6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="D6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="E6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="F6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="G6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="H6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
-        <f>B7</f>
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
+++ b/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\trans\AVL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FCD5EF-BAFF-4FF2-BC04-1FC171B6B093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BE6B5C2-6CE0-4290-841C-DE5561F66419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61905" yWindow="3135" windowWidth="22140" windowHeight="13245" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="SoCDTtiNTY-frgt" sheetId="20" r:id="rId9"/>
     <sheet name="AVL" sheetId="10" r:id="rId10"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId11"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3744,15 +3747,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3763,6 +3757,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3871,6 +3874,58 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="ACEA Stock"/>
+      <sheetName val="ACEA Sales"/>
+      <sheetName val="calcs"/>
+      <sheetName val="SoCDTtiNTY-psgr"/>
+      <sheetName val="SoCDTtiNTY-frgt"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="4">
+          <cell r="C4">
+            <v>5.3489407911602317E-2</v>
+          </cell>
+          <cell r="D4">
+            <v>4.0324092592718512E-2</v>
+          </cell>
+          <cell r="E4">
+            <v>3.8857139556321266E-2</v>
+          </cell>
+          <cell r="F4">
+            <v>3.6725304130200163E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>4.2633856773290693E-2</v>
+          </cell>
+          <cell r="E5">
+            <v>4.359738562091503E-2</v>
+          </cell>
+          <cell r="F5">
+            <v>4.0383085705738106E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4435,7 +4490,7 @@
       </c>
       <c r="B2" s="70">
         <f>ROUND(1/'SoCDTtiNTY-psgr'!B2,0)</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="70">
         <f>ROUND(1/'SoCDTtiNTY-frgt'!B2,0)</f>
@@ -39427,62 +39482,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="81"/>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="81"/>
-      <c r="AO1" s="81"/>
-      <c r="AP1" s="81"/>
-      <c r="AQ1" s="81"/>
-      <c r="AR1" s="81"/>
-      <c r="AS1" s="81"/>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="81"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="81"/>
-      <c r="AX1" s="81"/>
-      <c r="AY1" s="81"/>
-      <c r="AZ1" s="81"/>
-      <c r="BA1" s="81"/>
-      <c r="BB1" s="81"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="78"/>
+      <c r="AU1" s="78"/>
+      <c r="AV1" s="78"/>
+      <c r="AW1" s="78"/>
+      <c r="AX1" s="78"/>
+      <c r="AY1" s="78"/>
+      <c r="AZ1" s="78"/>
+      <c r="BA1" s="78"/>
+      <c r="BB1" s="78"/>
     </row>
     <row r="2" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38"/>
@@ -41505,65 +41560,65 @@
       <c r="BB20" s="59"/>
     </row>
     <row r="21" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="82"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
     </row>
     <row r="22" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="83"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="83"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="80"/>
     </row>
     <row r="23" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="83"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="83"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="80"/>
     </row>
     <row r="24" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="76" t="s">
@@ -41608,86 +41663,86 @@
       <c r="Q25" s="76"/>
     </row>
     <row r="26" spans="1:54" s="63" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="77"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="81"/>
     </row>
     <row r="27" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="77"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="77"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="81"/>
     </row>
     <row r="28" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="78" t="s">
+      <c r="A28" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="78"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="82"/>
     </row>
     <row r="29" spans="1:54" s="63" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="79" t="s">
+      <c r="A29" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="79"/>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="79"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
     </row>
     <row r="33" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="34" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -41720,17 +41775,17 @@
     <row r="61" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A27:Q27"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="A29:Q29"/>
     <mergeCell ref="A24:Q24"/>
     <mergeCell ref="A1:AB1"/>
     <mergeCell ref="AC1:BB1"/>
     <mergeCell ref="A21:Q21"/>
     <mergeCell ref="A22:Q22"/>
     <mergeCell ref="A23:Q23"/>
-    <mergeCell ref="A25:Q25"/>
-    <mergeCell ref="A26:Q26"/>
-    <mergeCell ref="A27:Q27"/>
-    <mergeCell ref="A28:Q28"/>
-    <mergeCell ref="A29:Q29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42344,25 +42399,32 @@
         <v>48</v>
       </c>
       <c r="B2">
-        <v>3.8635512093079978E-2</v>
+        <f>AVERAGE([1]calcs!$C4:$F4)</f>
+        <v>4.234898604771057E-2</v>
       </c>
       <c r="C2">
-        <v>3.8635512093079978E-2</v>
+        <f>AVERAGE([1]calcs!$C4:$F4)</f>
+        <v>4.234898604771057E-2</v>
       </c>
       <c r="D2">
-        <v>3.8635512093079978E-2</v>
+        <f>AVERAGE([1]calcs!$C4:$F4)</f>
+        <v>4.234898604771057E-2</v>
       </c>
       <c r="E2">
-        <v>3.8635512093079978E-2</v>
+        <f>AVERAGE([1]calcs!$C4:$F4)</f>
+        <v>4.234898604771057E-2</v>
       </c>
       <c r="F2">
-        <v>3.8635512093079978E-2</v>
+        <f>AVERAGE([1]calcs!$C4:$F4)</f>
+        <v>4.234898604771057E-2</v>
       </c>
       <c r="G2">
-        <v>3.8635512093079978E-2</v>
+        <f>AVERAGE([1]calcs!$C4:$F4)</f>
+        <v>4.234898604771057E-2</v>
       </c>
       <c r="H2">
-        <v>3.8635512093079978E-2</v>
+        <f>AVERAGE([1]calcs!$C4:$F4)</f>
+        <v>4.234898604771057E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -42370,24 +42432,31 @@
         <v>51</v>
       </c>
       <c r="B3">
+        <f>AVERAGE([1]calcs!$D5:$F5)</f>
         <v>4.2204776033314607E-2</v>
       </c>
       <c r="C3">
+        <f>AVERAGE([1]calcs!$D5:$F5)</f>
         <v>4.2204776033314607E-2</v>
       </c>
       <c r="D3">
+        <f>AVERAGE([1]calcs!$D5:$F5)</f>
         <v>4.2204776033314607E-2</v>
       </c>
       <c r="E3">
+        <f>AVERAGE([1]calcs!$D5:$F5)</f>
         <v>4.2204776033314607E-2</v>
       </c>
       <c r="F3">
+        <f>AVERAGE([1]calcs!$D5:$F5)</f>
         <v>4.2204776033314607E-2</v>
       </c>
       <c r="G3">
+        <f>AVERAGE([1]calcs!$D5:$F5)</f>
         <v>4.2204776033314607E-2</v>
       </c>
       <c r="H3">
+        <f>AVERAGE([1]calcs!$D5:$F5)</f>
         <v>4.2204776033314607E-2</v>
       </c>
     </row>

--- a/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
+++ b/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\trans\AVL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BE6B5C2-6CE0-4290-841C-DE5561F66419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC4B8C5-5EAF-48BE-B90A-2D373A887F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61905" yWindow="3135" windowWidth="22140" windowHeight="13245" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58740" yWindow="1140" windowWidth="22140" windowHeight="13230" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -24,9 +24,6 @@
     <sheet name="SoCDTtiNTY-frgt" sheetId="20" r:id="rId9"/>
     <sheet name="AVL" sheetId="10" r:id="rId10"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId11"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3876,58 +3873,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="ACEA Stock"/>
-      <sheetName val="ACEA Sales"/>
-      <sheetName val="calcs"/>
-      <sheetName val="SoCDTtiNTY-psgr"/>
-      <sheetName val="SoCDTtiNTY-frgt"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="4">
-          <cell r="C4">
-            <v>5.3489407911602317E-2</v>
-          </cell>
-          <cell r="D4">
-            <v>4.0324092592718512E-2</v>
-          </cell>
-          <cell r="E4">
-            <v>3.8857139556321266E-2</v>
-          </cell>
-          <cell r="F4">
-            <v>3.6725304130200163E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>4.2633856773290693E-2</v>
-          </cell>
-          <cell r="E5">
-            <v>4.359738562091503E-2</v>
-          </cell>
-          <cell r="F5">
-            <v>4.0383085705738106E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -4494,7 +4439,7 @@
       </c>
       <c r="C2" s="70">
         <f>ROUND(1/'SoCDTtiNTY-frgt'!B2,0)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -42359,7 +42304,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42399,32 +42344,25 @@
         <v>48</v>
       </c>
       <c r="B2">
-        <f>AVERAGE([1]calcs!$C4:$F4)</f>
-        <v>4.234898604771057E-2</v>
+        <v>4.2348985999999998E-2</v>
       </c>
       <c r="C2">
-        <f>AVERAGE([1]calcs!$C4:$F4)</f>
-        <v>4.234898604771057E-2</v>
+        <v>4.2348985999999998E-2</v>
       </c>
       <c r="D2">
-        <f>AVERAGE([1]calcs!$C4:$F4)</f>
-        <v>4.234898604771057E-2</v>
+        <v>4.2348985999999998E-2</v>
       </c>
       <c r="E2">
-        <f>AVERAGE([1]calcs!$C4:$F4)</f>
-        <v>4.234898604771057E-2</v>
+        <v>4.2348985999999998E-2</v>
       </c>
       <c r="F2">
-        <f>AVERAGE([1]calcs!$C4:$F4)</f>
-        <v>4.234898604771057E-2</v>
+        <v>4.2348985999999998E-2</v>
       </c>
       <c r="G2">
-        <f>AVERAGE([1]calcs!$C4:$F4)</f>
-        <v>4.234898604771057E-2</v>
+        <v>4.2348985999999998E-2</v>
       </c>
       <c r="H2">
-        <f>AVERAGE([1]calcs!$C4:$F4)</f>
-        <v>4.234898604771057E-2</v>
+        <v>4.2348985999999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -42432,32 +42370,25 @@
         <v>51</v>
       </c>
       <c r="B3">
-        <f>AVERAGE([1]calcs!$D5:$F5)</f>
-        <v>4.2204776033314607E-2</v>
+        <v>4.2204775999999999E-2</v>
       </c>
       <c r="C3">
-        <f>AVERAGE([1]calcs!$D5:$F5)</f>
-        <v>4.2204776033314607E-2</v>
+        <v>4.2204775999999999E-2</v>
       </c>
       <c r="D3">
-        <f>AVERAGE([1]calcs!$D5:$F5)</f>
-        <v>4.2204776033314607E-2</v>
+        <v>4.2204775999999999E-2</v>
       </c>
       <c r="E3">
-        <f>AVERAGE([1]calcs!$D5:$F5)</f>
-        <v>4.2204776033314607E-2</v>
+        <v>4.2204775999999999E-2</v>
       </c>
       <c r="F3">
-        <f>AVERAGE([1]calcs!$D5:$F5)</f>
-        <v>4.2204776033314607E-2</v>
+        <v>4.2204775999999999E-2</v>
       </c>
       <c r="G3">
-        <f>AVERAGE([1]calcs!$D5:$F5)</f>
-        <v>4.2204776033314607E-2</v>
+        <v>4.2204775999999999E-2</v>
       </c>
       <c r="H3">
-        <f>AVERAGE([1]calcs!$D5:$F5)</f>
-        <v>4.2204776033314607E-2</v>
+        <v>4.2204775999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -42577,7 +42508,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42586,29 +42517,29 @@
     <col min="2" max="8" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="30" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>853</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" t="s">
         <v>854</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" t="s">
         <v>855</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" t="s">
         <v>856</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" t="s">
         <v>857</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" t="s">
         <v>858</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" t="s">
         <v>859</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" t="s">
         <v>860</v>
       </c>
     </row>
@@ -42617,25 +42548,25 @@
         <v>48</v>
       </c>
       <c r="B2">
-        <v>5.190582462648987E-2</v>
+        <v>5.5380247000000001E-2</v>
       </c>
       <c r="C2">
-        <v>5.190582462648987E-2</v>
+        <v>5.5380247000000001E-2</v>
       </c>
       <c r="D2">
-        <v>5.190582462648987E-2</v>
+        <v>5.5380247000000001E-2</v>
       </c>
       <c r="E2">
-        <v>5.190582462648987E-2</v>
+        <v>5.5380247000000001E-2</v>
       </c>
       <c r="F2">
-        <v>5.190582462648987E-2</v>
+        <v>5.5380247000000001E-2</v>
       </c>
       <c r="G2">
-        <v>5.190582462648987E-2</v>
+        <v>5.5380247000000001E-2</v>
       </c>
       <c r="H2">
-        <v>5.190582462648987E-2</v>
+        <v>5.5380247000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -42643,25 +42574,25 @@
         <v>51</v>
       </c>
       <c r="B3">
-        <v>5.0582439096787349E-2</v>
+        <v>5.0582439E-2</v>
       </c>
       <c r="C3">
-        <v>5.0582439096787349E-2</v>
+        <v>5.0582439E-2</v>
       </c>
       <c r="D3">
-        <v>5.0582439096787349E-2</v>
+        <v>5.0582439E-2</v>
       </c>
       <c r="E3">
-        <v>5.0582439096787349E-2</v>
+        <v>5.0582439E-2</v>
       </c>
       <c r="F3">
-        <v>5.0582439096787349E-2</v>
+        <v>5.0582439E-2</v>
       </c>
       <c r="G3">
-        <v>5.0582439096787349E-2</v>
+        <v>5.0582439E-2</v>
       </c>
       <c r="H3">
-        <v>5.0582439096787349E-2</v>
+        <v>5.0582439E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">

--- a/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
+++ b/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\trans\AVL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC4B8C5-5EAF-48BE-B90A-2D373A887F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5341A9CB-39DA-4C49-9AE4-C4318F736D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58740" yWindow="1140" windowWidth="22140" windowHeight="13230" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61650" yWindow="3240" windowWidth="22140" windowHeight="13245" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -4408,7 +4408,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="C3" s="70">
         <f>ROUND(1/'SoCDTtiNTY-frgt'!B3,0)</f>
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -42508,7 +42508,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H7"/>
+      <selection activeCell="A3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42574,25 +42574,25 @@
         <v>51</v>
       </c>
       <c r="B3">
-        <v>5.0582439E-2</v>
+        <v>6.0404717788497909E-2</v>
       </c>
       <c r="C3">
-        <v>5.0582439E-2</v>
+        <v>6.0404717788497909E-2</v>
       </c>
       <c r="D3">
-        <v>5.0582439E-2</v>
+        <v>6.0404717788497909E-2</v>
       </c>
       <c r="E3">
-        <v>5.0582439E-2</v>
+        <v>6.0404717788497909E-2</v>
       </c>
       <c r="F3">
-        <v>5.0582439E-2</v>
+        <v>6.0404717788497909E-2</v>
       </c>
       <c r="G3">
-        <v>5.0582439E-2</v>
+        <v>6.0404717788497909E-2</v>
       </c>
       <c r="H3">
-        <v>5.0582439E-2</v>
+        <v>6.0404717788497909E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">

--- a/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
+++ b/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\trans\AVL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5341A9CB-39DA-4C49-9AE4-C4318F736D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9551FC-53A9-483A-91CF-10004F72B6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61650" yWindow="3240" windowWidth="22140" windowHeight="13245" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="570" windowWidth="22140" windowHeight="13245" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="B3" s="74">
         <f>ROUND(1/'SoCDTtiNTY-psgr'!B3,0)</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C3" s="70">
         <f>ROUND(1/'SoCDTtiNTY-frgt'!B3,0)</f>
@@ -42304,7 +42304,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42370,25 +42370,25 @@
         <v>51</v>
       </c>
       <c r="B3">
-        <v>4.2204775999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C3">
-        <v>4.2204775999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D3">
-        <v>4.2204775999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E3">
-        <v>4.2204775999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="F3">
-        <v>4.2204775999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="G3">
-        <v>4.2204775999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="H3">
-        <v>4.2204775999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">

--- a/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
+++ b/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\AVL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\trans\AVL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E8E3B4-90F7-47CE-B7D9-D72B535B6C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9551FC-53A9-483A-91CF-10004F72B6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="570" windowWidth="22140" windowHeight="13245" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <sheet name="Sheet1" sheetId="12" r:id="rId5"/>
     <sheet name="NTS 1-20" sheetId="11" r:id="rId6"/>
     <sheet name="Calculations" sheetId="2" r:id="rId7"/>
-    <sheet name="AVL" sheetId="10" r:id="rId8"/>
+    <sheet name="SoCDTtiNTY-psgr" sheetId="19" r:id="rId8"/>
+    <sheet name="SoCDTtiNTY-frgt" sheetId="20" r:id="rId9"/>
+    <sheet name="AVL" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="861">
   <si>
     <t>Car Avg Lifetime, years (Page 22, Table 7)</t>
   </si>
@@ -2628,6 +2630,30 @@
   </si>
   <si>
     <t>We calibrate the value for passenger LDVs to match annual passenger LDV sales in the model, which were roughly 15 million in 2021.</t>
+  </si>
+  <si>
+    <t>Share that is New (dimensionless)</t>
+  </si>
+  <si>
+    <t>battery electric vehicle</t>
+  </si>
+  <si>
+    <t>natural gas vehicle</t>
+  </si>
+  <si>
+    <t>gasoline vehicle</t>
+  </si>
+  <si>
+    <t>diesel vehicle</t>
+  </si>
+  <si>
+    <t>plugin hybrid vehicle</t>
+  </si>
+  <si>
+    <t>LPG vehicle</t>
+  </si>
+  <si>
+    <t>hydrogen vehicle</t>
   </si>
 </sst>
 </file>
@@ -3714,6 +3740,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3738,7 +3765,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="62">
     <cellStyle name="20% - Accent1" xfId="35" builtinId="30" customBuiltin="1"/>
@@ -4136,21 +4162,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="132.28515625" customWidth="1"/>
+    <col min="2" max="2" width="132.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -4158,207 +4184,207 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="83" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="75" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="9">
         <v>2016</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="9">
         <v>2015</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="9">
         <v>2019</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="9">
         <v>2013</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B33" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B37" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B40" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B42" s="9">
         <v>2009</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B44" s="19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -4374,6 +4400,118 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="70">
+        <f>ROUND(1/'SoCDTtiNTY-psgr'!B2,0)</f>
+        <v>24</v>
+      </c>
+      <c r="C2" s="70">
+        <f>ROUND(1/'SoCDTtiNTY-frgt'!B2,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="74">
+        <f>ROUND(1/'SoCDTtiNTY-psgr'!B3,0)</f>
+        <v>18</v>
+      </c>
+      <c r="C3" s="70">
+        <f>ROUND(1/'SoCDTtiNTY-frgt'!B3,0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="37">
+        <f>ROUND(Calculations!A16,0)</f>
+        <v>24</v>
+      </c>
+      <c r="C4" s="37">
+        <f>B4</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <f>ROUND(Calculations!C22,0)</f>
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <f>B5</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <f>ROUND(Calculations!C28,0)</f>
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <f>B6</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <f>ROUND(Calculations!A48,0)</f>
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <f>B7</f>
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA96C9F-D5CD-49A6-8F43-ABDD7F5942E5}">
   <dimension ref="A1:AJ67"/>
@@ -4382,29 +4520,29 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>99</v>
       </c>
@@ -4511,17 +4649,17 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -4628,7 +4766,7 @@
         <v>-2.3E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -4735,7 +4873,7 @@
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>112</v>
       </c>
@@ -4842,12 +4980,12 @@
         <v>-2.3E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -4954,7 +5092,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -5061,7 +5199,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -5168,7 +5306,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -5275,7 +5413,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -5382,7 +5520,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -5489,7 +5627,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>133</v>
       </c>
@@ -5596,7 +5734,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>137</v>
       </c>
@@ -5703,7 +5841,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>140</v>
       </c>
@@ -5810,7 +5948,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -5917,7 +6055,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>146</v>
       </c>
@@ -6024,7 +6162,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>149</v>
       </c>
@@ -6131,7 +6269,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>151</v>
       </c>
@@ -6238,7 +6376,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>154</v>
       </c>
@@ -6345,7 +6483,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>157</v>
       </c>
@@ -6452,7 +6590,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>160</v>
       </c>
@@ -6559,7 +6697,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>164</v>
       </c>
@@ -6666,17 +6804,17 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>105</v>
       </c>
@@ -6783,7 +6921,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -6890,7 +7028,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>173</v>
       </c>
@@ -6997,12 +7135,12 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>116</v>
       </c>
@@ -7109,7 +7247,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -7216,7 +7354,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>122</v>
       </c>
@@ -7323,7 +7461,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>125</v>
       </c>
@@ -7430,7 +7568,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>128</v>
       </c>
@@ -7537,7 +7675,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>131</v>
       </c>
@@ -7644,7 +7782,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>133</v>
       </c>
@@ -7751,7 +7889,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>137</v>
       </c>
@@ -7858,7 +7996,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>140</v>
       </c>
@@ -7965,7 +8103,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>143</v>
       </c>
@@ -8072,7 +8210,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>146</v>
       </c>
@@ -8179,7 +8317,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>149</v>
       </c>
@@ -8286,7 +8424,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>151</v>
       </c>
@@ -8393,7 +8531,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>154</v>
       </c>
@@ -8500,7 +8638,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>203</v>
       </c>
@@ -8607,7 +8745,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>206</v>
       </c>
@@ -8714,7 +8852,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>209</v>
       </c>
@@ -8821,7 +8959,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>212</v>
       </c>
@@ -8928,7 +9066,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>215</v>
       </c>
@@ -9035,7 +9173,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>218</v>
       </c>
@@ -9142,7 +9280,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>221</v>
       </c>
@@ -9150,7 +9288,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>223</v>
       </c>
@@ -9257,7 +9395,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>226</v>
       </c>
@@ -9364,7 +9502,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>229</v>
       </c>
@@ -9471,7 +9609,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>232</v>
       </c>
@@ -9578,7 +9716,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>235</v>
       </c>
@@ -9685,7 +9823,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>238</v>
       </c>
@@ -9792,7 +9930,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>241</v>
       </c>
@@ -9899,7 +10037,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>244</v>
       </c>
@@ -10006,7 +10144,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>247</v>
       </c>
@@ -10113,7 +10251,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>250</v>
       </c>
@@ -10220,7 +10358,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>253</v>
       </c>
@@ -10327,7 +10465,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>256</v>
       </c>
@@ -10443,31 +10581,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33927D89-D419-41FE-9E53-4D84EE260AF9}">
   <dimension ref="A1:AJ252"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" workbookViewId="0"/>
+    <sheetView topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="E207" sqref="E207"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>99</v>
       </c>
@@ -10574,22 +10714,22 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>264</v>
       </c>
@@ -10696,7 +10836,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>268</v>
       </c>
@@ -10803,7 +10943,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>271</v>
       </c>
@@ -10910,7 +11050,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>274</v>
       </c>
@@ -11017,7 +11157,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>277</v>
       </c>
@@ -11124,7 +11264,7 @@
         <v>-3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>232</v>
       </c>
@@ -11231,7 +11371,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>282</v>
       </c>
@@ -11338,7 +11478,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>285</v>
       </c>
@@ -11445,7 +11585,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>244</v>
       </c>
@@ -11552,7 +11692,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>290</v>
       </c>
@@ -11659,12 +11799,12 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>264</v>
       </c>
@@ -11771,7 +11911,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>268</v>
       </c>
@@ -11878,7 +12018,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>271</v>
       </c>
@@ -11985,7 +12125,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>274</v>
       </c>
@@ -12092,7 +12232,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>277</v>
       </c>
@@ -12199,7 +12339,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>232</v>
       </c>
@@ -12306,7 +12446,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>282</v>
       </c>
@@ -12413,7 +12553,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>285</v>
       </c>
@@ -12520,7 +12660,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>244</v>
       </c>
@@ -12627,7 +12767,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>312</v>
       </c>
@@ -12734,12 +12874,12 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>264</v>
       </c>
@@ -12846,7 +12986,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>268</v>
       </c>
@@ -12953,7 +13093,7 @@
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>271</v>
       </c>
@@ -13060,7 +13200,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>274</v>
       </c>
@@ -13167,7 +13307,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>277</v>
       </c>
@@ -13274,7 +13414,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>232</v>
       </c>
@@ -13381,7 +13521,7 @@
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>282</v>
       </c>
@@ -13488,7 +13628,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>285</v>
       </c>
@@ -13595,7 +13735,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>244</v>
       </c>
@@ -13702,7 +13842,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>334</v>
       </c>
@@ -13809,7 +13949,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>337</v>
       </c>
@@ -13916,17 +14056,17 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>264</v>
       </c>
@@ -14033,7 +14173,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>268</v>
       </c>
@@ -14140,7 +14280,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>271</v>
       </c>
@@ -14247,7 +14387,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>274</v>
       </c>
@@ -14354,7 +14494,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>277</v>
       </c>
@@ -14461,7 +14601,7 @@
         <v>-3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>232</v>
       </c>
@@ -14568,7 +14708,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>282</v>
       </c>
@@ -14675,7 +14815,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>285</v>
       </c>
@@ -14782,7 +14922,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>244</v>
       </c>
@@ -14889,7 +15029,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>290</v>
       </c>
@@ -14996,12 +15136,12 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>264</v>
       </c>
@@ -15108,7 +15248,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>268</v>
       </c>
@@ -15215,7 +15355,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>271</v>
       </c>
@@ -15322,7 +15462,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>274</v>
       </c>
@@ -15429,7 +15569,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>277</v>
       </c>
@@ -15536,7 +15676,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>232</v>
       </c>
@@ -15643,7 +15783,7 @@
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>282</v>
       </c>
@@ -15750,7 +15890,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>285</v>
       </c>
@@ -15857,7 +15997,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>244</v>
       </c>
@@ -15964,7 +16104,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>312</v>
       </c>
@@ -16071,12 +16211,12 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>264</v>
       </c>
@@ -16183,7 +16323,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>268</v>
       </c>
@@ -16290,7 +16430,7 @@
         <v>-4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>271</v>
       </c>
@@ -16397,7 +16537,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>274</v>
       </c>
@@ -16504,7 +16644,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>277</v>
       </c>
@@ -16611,7 +16751,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>232</v>
       </c>
@@ -16718,7 +16858,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>282</v>
       </c>
@@ -16825,7 +16965,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>285</v>
       </c>
@@ -16932,7 +17072,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>244</v>
       </c>
@@ -17039,7 +17179,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>334</v>
       </c>
@@ -17146,7 +17286,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>263</v>
       </c>
@@ -17157,7 +17297,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>264</v>
       </c>
@@ -17264,7 +17404,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>268</v>
       </c>
@@ -17371,7 +17511,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>271</v>
       </c>
@@ -17478,7 +17618,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>274</v>
       </c>
@@ -17585,7 +17725,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>277</v>
       </c>
@@ -17692,7 +17832,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>232</v>
       </c>
@@ -17799,7 +17939,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>282</v>
       </c>
@@ -17906,7 +18046,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>285</v>
       </c>
@@ -18013,7 +18153,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>244</v>
       </c>
@@ -18120,7 +18260,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>422</v>
       </c>
@@ -18227,17 +18367,17 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>264</v>
       </c>
@@ -18344,7 +18484,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>268</v>
       </c>
@@ -18451,7 +18591,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>271</v>
       </c>
@@ -18558,7 +18698,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>274</v>
       </c>
@@ -18665,7 +18805,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>277</v>
       </c>
@@ -18772,7 +18912,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>232</v>
       </c>
@@ -18879,7 +19019,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>282</v>
       </c>
@@ -18986,7 +19126,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>285</v>
       </c>
@@ -19093,7 +19233,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>244</v>
       </c>
@@ -19200,7 +19340,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>446</v>
       </c>
@@ -19304,12 +19444,12 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>264</v>
       </c>
@@ -19416,7 +19556,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>268</v>
       </c>
@@ -19523,7 +19663,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>271</v>
       </c>
@@ -19630,7 +19770,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>274</v>
       </c>
@@ -19737,7 +19877,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>277</v>
       </c>
@@ -19844,7 +19984,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>232</v>
       </c>
@@ -19951,7 +20091,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>282</v>
       </c>
@@ -20058,7 +20198,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>285</v>
       </c>
@@ -20165,7 +20305,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>244</v>
       </c>
@@ -20272,7 +20412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>468</v>
       </c>
@@ -20376,12 +20516,12 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>264</v>
       </c>
@@ -20488,7 +20628,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>268</v>
       </c>
@@ -20595,7 +20735,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>271</v>
       </c>
@@ -20702,7 +20842,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>274</v>
       </c>
@@ -20809,7 +20949,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>277</v>
       </c>
@@ -20916,7 +21056,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>232</v>
       </c>
@@ -21023,7 +21163,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>282</v>
       </c>
@@ -21130,7 +21270,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>285</v>
       </c>
@@ -21237,7 +21377,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>244</v>
       </c>
@@ -21344,7 +21484,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>489</v>
       </c>
@@ -21448,7 +21588,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>492</v>
       </c>
@@ -21552,17 +21692,17 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>264</v>
       </c>
@@ -21669,7 +21809,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>268</v>
       </c>
@@ -21776,7 +21916,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>271</v>
       </c>
@@ -21883,7 +22023,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>274</v>
       </c>
@@ -21990,7 +22130,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>277</v>
       </c>
@@ -22097,7 +22237,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>232</v>
       </c>
@@ -22204,7 +22344,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>282</v>
       </c>
@@ -22311,7 +22451,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>285</v>
       </c>
@@ -22418,7 +22558,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>244</v>
       </c>
@@ -22525,7 +22665,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>290</v>
       </c>
@@ -22632,12 +22772,12 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>264</v>
       </c>
@@ -22744,7 +22884,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>268</v>
       </c>
@@ -22851,7 +22991,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>271</v>
       </c>
@@ -22958,7 +23098,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>274</v>
       </c>
@@ -23065,7 +23205,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>277</v>
       </c>
@@ -23172,7 +23312,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>232</v>
       </c>
@@ -23279,7 +23419,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>282</v>
       </c>
@@ -23386,7 +23526,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>285</v>
       </c>
@@ -23493,7 +23633,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>244</v>
       </c>
@@ -23600,7 +23740,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>312</v>
       </c>
@@ -23707,12 +23847,12 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>264</v>
       </c>
@@ -23819,7 +23959,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>268</v>
       </c>
@@ -23926,7 +24066,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>271</v>
       </c>
@@ -24033,7 +24173,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>274</v>
       </c>
@@ -24140,7 +24280,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>277</v>
       </c>
@@ -24247,7 +24387,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>232</v>
       </c>
@@ -24354,7 +24494,7 @@
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>282</v>
       </c>
@@ -24461,7 +24601,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>285</v>
       </c>
@@ -24568,7 +24708,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>244</v>
       </c>
@@ -24675,7 +24815,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>334</v>
       </c>
@@ -24782,7 +24922,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>557</v>
       </c>
@@ -24889,22 +25029,22 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>264</v>
       </c>
@@ -25011,7 +25151,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>268</v>
       </c>
@@ -25118,7 +25258,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>271</v>
       </c>
@@ -25225,7 +25365,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>274</v>
       </c>
@@ -25332,7 +25472,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>277</v>
       </c>
@@ -25439,7 +25579,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>232</v>
       </c>
@@ -25546,7 +25686,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>282</v>
       </c>
@@ -25653,7 +25793,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>285</v>
       </c>
@@ -25760,7 +25900,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>244</v>
       </c>
@@ -25867,7 +26007,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>446</v>
       </c>
@@ -25971,12 +26111,12 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>264</v>
       </c>
@@ -26083,7 +26223,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>268</v>
       </c>
@@ -26190,7 +26330,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>271</v>
       </c>
@@ -26297,7 +26437,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>274</v>
       </c>
@@ -26404,7 +26544,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>277</v>
       </c>
@@ -26511,7 +26651,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>232</v>
       </c>
@@ -26618,7 +26758,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>282</v>
       </c>
@@ -26725,7 +26865,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>285</v>
       </c>
@@ -26832,7 +26972,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>244</v>
       </c>
@@ -26939,7 +27079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>468</v>
       </c>
@@ -27043,12 +27183,12 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>264</v>
       </c>
@@ -27155,7 +27295,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>268</v>
       </c>
@@ -27262,7 +27402,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>271</v>
       </c>
@@ -27369,7 +27509,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>274</v>
       </c>
@@ -27476,7 +27616,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>277</v>
       </c>
@@ -27583,7 +27723,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>232</v>
       </c>
@@ -27690,7 +27830,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>282</v>
       </c>
@@ -27797,7 +27937,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>285</v>
       </c>
@@ -27904,7 +28044,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>244</v>
       </c>
@@ -28011,7 +28151,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>489</v>
       </c>
@@ -28115,7 +28255,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>492</v>
       </c>
@@ -28219,17 +28359,17 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>264</v>
       </c>
@@ -28336,7 +28476,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>268</v>
       </c>
@@ -28443,7 +28583,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>271</v>
       </c>
@@ -28550,7 +28690,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>274</v>
       </c>
@@ -28657,7 +28797,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>277</v>
       </c>
@@ -28764,7 +28904,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>232</v>
       </c>
@@ -28871,7 +29011,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>282</v>
       </c>
@@ -28978,7 +29118,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>285</v>
       </c>
@@ -29085,7 +29225,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>244</v>
       </c>
@@ -29192,7 +29332,7 @@
         <v>-1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>290</v>
       </c>
@@ -29299,12 +29439,12 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>264</v>
       </c>
@@ -29411,7 +29551,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>268</v>
       </c>
@@ -29518,7 +29658,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>271</v>
       </c>
@@ -29625,7 +29765,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>274</v>
       </c>
@@ -29732,7 +29872,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>277</v>
       </c>
@@ -29839,7 +29979,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>232</v>
       </c>
@@ -29946,7 +30086,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>282</v>
       </c>
@@ -30053,7 +30193,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>285</v>
       </c>
@@ -30160,7 +30300,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>244</v>
       </c>
@@ -30267,7 +30407,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>312</v>
       </c>
@@ -30374,12 +30514,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>264</v>
       </c>
@@ -30486,7 +30626,7 @@
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>268</v>
       </c>
@@ -30593,7 +30733,7 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>271</v>
       </c>
@@ -30700,7 +30840,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>274</v>
       </c>
@@ -30807,7 +30947,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>277</v>
       </c>
@@ -30914,7 +31054,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>232</v>
       </c>
@@ -31021,7 +31161,7 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>282</v>
       </c>
@@ -31128,7 +31268,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>285</v>
       </c>
@@ -31235,7 +31375,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>244</v>
       </c>
@@ -31342,7 +31482,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>334</v>
       </c>
@@ -31449,7 +31589,7 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>221</v>
       </c>
@@ -31556,12 +31696,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>687</v>
       </c>
@@ -31668,7 +31808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>691</v>
       </c>
@@ -31775,12 +31915,12 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>696</v>
       </c>
@@ -31887,7 +32027,7 @@
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>699</v>
       </c>
@@ -31994,7 +32134,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>702</v>
       </c>
@@ -32101,7 +32241,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>705</v>
       </c>
@@ -32208,12 +32348,12 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>709</v>
       </c>
@@ -32320,7 +32460,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>691</v>
       </c>
@@ -32427,12 +32567,12 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>696</v>
       </c>
@@ -32539,7 +32679,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>699</v>
       </c>
@@ -32646,7 +32786,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>702</v>
       </c>
@@ -32753,7 +32893,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>705</v>
       </c>
@@ -32860,12 +33000,12 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>723</v>
       </c>
@@ -32972,7 +33112,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>727</v>
       </c>
@@ -33079,7 +33219,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>730</v>
       </c>
@@ -33186,12 +33326,12 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>696</v>
       </c>
@@ -33298,7 +33438,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>699</v>
       </c>
@@ -33405,7 +33545,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>702</v>
       </c>
@@ -33512,7 +33652,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>705</v>
       </c>
@@ -33630,29 +33770,29 @@
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>99</v>
       </c>
@@ -33759,12 +33899,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -33772,7 +33912,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -33879,7 +34019,7 @@
         <v>-2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -33986,7 +34126,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>112</v>
       </c>
@@ -34093,12 +34233,12 @@
         <v>-2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -34205,7 +34345,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -34312,7 +34452,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -34419,7 +34559,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -34526,7 +34666,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -34633,7 +34773,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -34740,7 +34880,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>133</v>
       </c>
@@ -34847,7 +34987,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>137</v>
       </c>
@@ -34954,7 +35094,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>140</v>
       </c>
@@ -35061,7 +35201,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -35168,7 +35308,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>146</v>
       </c>
@@ -35275,7 +35415,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>149</v>
       </c>
@@ -35382,7 +35522,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>151</v>
       </c>
@@ -35489,7 +35629,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>154</v>
       </c>
@@ -35596,7 +35736,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>157</v>
       </c>
@@ -35703,7 +35843,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>160</v>
       </c>
@@ -35810,7 +35950,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>164</v>
       </c>
@@ -35917,17 +36057,17 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>105</v>
       </c>
@@ -36034,7 +36174,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -36141,7 +36281,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>173</v>
       </c>
@@ -36248,12 +36388,12 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>116</v>
       </c>
@@ -36360,7 +36500,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -36467,7 +36607,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>122</v>
       </c>
@@ -36574,7 +36714,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>125</v>
       </c>
@@ -36681,7 +36821,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>128</v>
       </c>
@@ -36788,7 +36928,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>131</v>
       </c>
@@ -36895,7 +37035,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>133</v>
       </c>
@@ -37002,7 +37142,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>137</v>
       </c>
@@ -37109,7 +37249,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>140</v>
       </c>
@@ -37216,7 +37356,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>143</v>
       </c>
@@ -37323,7 +37463,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>146</v>
       </c>
@@ -37430,7 +37570,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>149</v>
       </c>
@@ -37537,7 +37677,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>151</v>
       </c>
@@ -37644,7 +37784,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>154</v>
       </c>
@@ -37751,7 +37891,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>203</v>
       </c>
@@ -37858,7 +37998,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>206</v>
       </c>
@@ -37965,7 +38105,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>209</v>
       </c>
@@ -38072,7 +38212,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>820</v>
       </c>
@@ -38179,12 +38319,12 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>268</v>
       </c>
@@ -38291,7 +38431,7 @@
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>264</v>
       </c>
@@ -38398,7 +38538,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>271</v>
       </c>
@@ -38505,7 +38645,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>274</v>
       </c>
@@ -38612,7 +38752,7 @@
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>277</v>
       </c>
@@ -38719,7 +38859,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>232</v>
       </c>
@@ -38826,7 +38966,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>285</v>
       </c>
@@ -38933,7 +39073,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>282</v>
       </c>
@@ -39040,7 +39180,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>244</v>
       </c>
@@ -39147,7 +39287,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>842</v>
       </c>
@@ -39265,7 +39405,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39276,75 +39416,75 @@
   <dimension ref="A1:BB61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AB1"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="27" width="7.7109375" customWidth="1"/>
-    <col min="28" max="28" width="7.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="27" width="7.7265625" customWidth="1"/>
+    <col min="28" max="28" width="7.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:54" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="77"/>
-      <c r="AM1" s="77"/>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="77"/>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="77"/>
-      <c r="AR1" s="77"/>
-      <c r="AS1" s="77"/>
-      <c r="AT1" s="77"/>
-      <c r="AU1" s="77"/>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="77"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="77"/>
-      <c r="BB1" s="77"/>
-    </row>
-    <row r="2" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="78"/>
+      <c r="AU1" s="78"/>
+      <c r="AV1" s="78"/>
+      <c r="AW1" s="78"/>
+      <c r="AX1" s="78"/>
+      <c r="AY1" s="78"/>
+      <c r="AZ1" s="78"/>
+      <c r="BA1" s="78"/>
+      <c r="BB1" s="78"/>
+    </row>
+    <row r="2" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38"/>
       <c r="B2" s="39">
         <v>1980</v>
@@ -39454,7 +39594,7 @@
       <c r="BA2" s="45"/>
       <c r="BB2" s="46"/>
     </row>
-    <row r="3" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>61</v>
       </c>
@@ -39566,7 +39706,7 @@
       <c r="BA3" s="48"/>
       <c r="BB3" s="48"/>
     </row>
-    <row r="4" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="50" t="s">
         <v>63</v>
       </c>
@@ -39678,7 +39818,7 @@
       <c r="BA4" s="52"/>
       <c r="BB4" s="52"/>
     </row>
-    <row r="5" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50" t="s">
         <v>64</v>
       </c>
@@ -39790,7 +39930,7 @@
       <c r="BA5" s="52"/>
       <c r="BB5" s="52"/>
     </row>
-    <row r="6" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="50" t="s">
         <v>65</v>
       </c>
@@ -39902,7 +40042,7 @@
       <c r="BA6" s="52"/>
       <c r="BB6" s="52"/>
     </row>
-    <row r="7" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="50" t="s">
         <v>66</v>
       </c>
@@ -40014,7 +40154,7 @@
       <c r="BA7" s="52"/>
       <c r="BB7" s="52"/>
     </row>
-    <row r="8" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="50" t="s">
         <v>67</v>
       </c>
@@ -40126,7 +40266,7 @@
       <c r="BA8" s="52"/>
       <c r="BB8" s="52"/>
     </row>
-    <row r="9" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="53" t="s">
         <v>68</v>
       </c>
@@ -40184,7 +40324,7 @@
       <c r="BA9" s="54"/>
       <c r="BB9" s="54"/>
     </row>
-    <row r="10" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="50" t="s">
         <v>63</v>
       </c>
@@ -40298,7 +40438,7 @@
       <c r="BA10" s="56"/>
       <c r="BB10" s="56"/>
     </row>
-    <row r="11" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="50" t="s">
         <v>64</v>
       </c>
@@ -40410,7 +40550,7 @@
       <c r="BA11" s="56"/>
       <c r="BB11" s="56"/>
     </row>
-    <row r="12" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="50" t="s">
         <v>65</v>
       </c>
@@ -40522,7 +40662,7 @@
       <c r="BA12" s="56"/>
       <c r="BB12" s="56"/>
     </row>
-    <row r="13" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="50" t="s">
         <v>66</v>
       </c>
@@ -40634,7 +40774,7 @@
       <c r="BA13" s="56"/>
       <c r="BB13" s="56"/>
     </row>
-    <row r="14" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="50" t="s">
         <v>67</v>
       </c>
@@ -40746,7 +40886,7 @@
       <c r="BA14" s="56"/>
       <c r="BB14" s="56"/>
     </row>
-    <row r="15" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="47" t="s">
         <v>69</v>
       </c>
@@ -40804,7 +40944,7 @@
       <c r="BA15" s="58"/>
       <c r="BB15" s="58"/>
     </row>
-    <row r="16" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="50" t="s">
         <v>63</v>
       </c>
@@ -40916,7 +41056,7 @@
       <c r="BA16" s="59"/>
       <c r="BB16" s="59"/>
     </row>
-    <row r="17" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="50" t="s">
         <v>64</v>
       </c>
@@ -41028,7 +41168,7 @@
       <c r="BA17" s="59"/>
       <c r="BB17" s="59"/>
     </row>
-    <row r="18" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="50" t="s">
         <v>65</v>
       </c>
@@ -41140,7 +41280,7 @@
       <c r="BA18" s="59"/>
       <c r="BB18" s="59"/>
     </row>
-    <row r="19" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="50" t="s">
         <v>66</v>
       </c>
@@ -41252,7 +41392,7 @@
       <c r="BA19" s="59"/>
       <c r="BB19" s="59"/>
     </row>
-    <row r="20" spans="1:54" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:54" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="60" t="s">
         <v>67</v>
       </c>
@@ -41364,220 +41504,220 @@
       <c r="BA20" s="59"/>
       <c r="BB20" s="59"/>
     </row>
-    <row r="21" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="78" t="s">
+    <row r="21" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="78"/>
-    </row>
-    <row r="22" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="79"/>
-    </row>
-    <row r="23" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="79" t="s">
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+    </row>
+    <row r="22" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="80"/>
+    </row>
+    <row r="23" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-    </row>
-    <row r="24" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="80"/>
+    </row>
+    <row r="24" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="75"/>
-    </row>
-    <row r="25" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="75" t="s">
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="76"/>
+    </row>
+    <row r="25" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="75"/>
-    </row>
-    <row r="26" spans="1:54" s="63" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="80" t="s">
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="76"/>
+    </row>
+    <row r="26" spans="1:54" s="63" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="80"/>
-    </row>
-    <row r="27" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="80"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="80"/>
-    </row>
-    <row r="28" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="81" t="s">
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="81"/>
+    </row>
+    <row r="27" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="81"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="81"/>
+    </row>
+    <row r="28" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="81"/>
-    </row>
-    <row r="29" spans="1:54" s="63" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="82" t="s">
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="82"/>
+    </row>
+    <row r="29" spans="1:54" s="63" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="82"/>
-    </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+    </row>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A25:Q25"/>
@@ -41604,20 +41744,20 @@
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="3" customWidth="1"/>
-    <col min="6" max="14" width="9.140625" style="3"/>
-    <col min="15" max="15" width="15.42578125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="22.5703125" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="30.1796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.7265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.1796875" style="3" customWidth="1"/>
+    <col min="6" max="14" width="9.1796875" style="3"/>
+    <col min="15" max="15" width="15.453125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="22.54296875" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>48</v>
       </c>
@@ -41629,7 +41769,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -41653,7 +41793,7 @@
         <v>15397421.875</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>13</v>
       </c>
@@ -41680,7 +41820,7 @@
         <v>1420967.1940000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="O4" s="3" t="s">
         <v>847</v>
       </c>
@@ -41688,7 +41828,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>51</v>
       </c>
@@ -41700,7 +41840,7 @@
         <v>277987.51800000004</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>55</v>
       </c>
@@ -41715,7 +41855,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="68">
         <v>28</v>
       </c>
@@ -41730,7 +41870,7 @@
       </c>
       <c r="E7" s="67"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>52</v>
       </c>
@@ -41739,14 +41879,14 @@
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
     </row>
-    <row r="11" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
     </row>
-    <row r="12" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
@@ -41754,7 +41894,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>32</v>
       </c>
@@ -41762,7 +41902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="9" t="s">
         <v>34</v>
       </c>
@@ -41770,17 +41910,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="18">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>17</v>
       </c>
@@ -41789,7 +41929,7 @@
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>6</v>
       </c>
@@ -41800,7 +41940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -41811,7 +41951,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -41822,7 +41962,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22"/>
       <c r="B22" s="11" t="s">
         <v>22</v>
@@ -41831,17 +41971,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>9</v>
       </c>
@@ -41850,7 +41990,7 @@
       <c r="D26" s="34"/>
       <c r="E26" s="34"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="15" t="s">
         <v>6</v>
       </c>
@@ -41861,7 +42001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -41872,7 +42012,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
         <v>54</v>
       </c>
@@ -41881,7 +42021,7 @@
       <c r="D30" s="34"/>
       <c r="E30" s="34"/>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="21" t="s">
         <v>39</v>
       </c>
@@ -41898,7 +42038,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="20">
         <v>1997</v>
       </c>
@@ -41911,7 +42051,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="20">
         <v>1998</v>
       </c>
@@ -41930,7 +42070,7 @@
         <v>6.6484424338501588E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="20">
         <v>1999</v>
       </c>
@@ -41949,7 +42089,7 @@
         <v>2.9143636995467476E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="20">
         <v>2000</v>
       </c>
@@ -41968,7 +42108,7 @@
         <v>6.8191523924614153E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="20">
         <v>2001</v>
       </c>
@@ -41987,7 +42127,7 @@
         <v>4.0815360868813244E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="20">
         <v>2002</v>
       </c>
@@ -42006,7 +42146,7 @@
         <v>0.10769048766665149</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="20">
         <v>2003</v>
       </c>
@@ -42025,7 +42165,7 @@
         <v>5.9053805049687755E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="20">
         <v>2004</v>
       </c>
@@ -42044,7 +42184,7 @@
         <v>5.8670234757052138E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="20">
         <v>2005</v>
       </c>
@@ -42063,7 +42203,7 @@
         <v>6.1781753631599455E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="20">
         <v>2006</v>
       </c>
@@ -42082,7 +42222,7 @@
         <v>6.5906687839630079E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="25">
         <v>2007</v>
       </c>
@@ -42101,14 +42241,14 @@
         <v>5.9604038733197397E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -42116,7 +42256,7 @@
       <c r="C44"/>
       <c r="D44"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="28">
         <f>AVERAGE(E33:E42)</f>
         <v>5.8060812902328285E-2</v>
@@ -42125,13 +42265,13 @@
       <c r="C45"/>
       <c r="D45"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
     </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="36" t="s">
         <v>44</v>
       </c>
@@ -42139,7 +42279,7 @@
       <c r="C47"/>
       <c r="D47"/>
     </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="35">
         <f>1/A45</f>
         <v>17.22332068760786</v>
@@ -42157,108 +42297,406 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D32750-8D3C-4A88-9757-513D56EAFB13}">
   <sheetPr>
-    <tabColor theme="3"/>
+    <tabColor theme="2" tint="-9.9978637043366805E-2"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="8" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="30" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>854</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>855</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>856</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>857</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>858</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>859</v>
+      </c>
+      <c r="H1" s="72" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="70">
-        <v>17</v>
-      </c>
-      <c r="C2" s="70">
-        <f>Calculations!B3</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>4.2348985999999998E-2</v>
+      </c>
+      <c r="C2">
+        <v>4.2348985999999998E-2</v>
+      </c>
+      <c r="D2">
+        <v>4.2348985999999998E-2</v>
+      </c>
+      <c r="E2">
+        <v>4.2348985999999998E-2</v>
+      </c>
+      <c r="F2">
+        <v>4.2348985999999998E-2</v>
+      </c>
+      <c r="G2">
+        <v>4.2348985999999998E-2</v>
+      </c>
+      <c r="H2">
+        <v>4.2348985999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="74">
-        <f>Calculations!C7</f>
-        <v>23</v>
-      </c>
-      <c r="C3" s="70">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H3">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="37">
-        <f>ROUND(Calculations!A16,0)</f>
-        <v>24</v>
-      </c>
-      <c r="C4" s="37">
-        <f>B4</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="E4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="F4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="G4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="H4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5">
-        <f>ROUND(Calculations!C22,0)</f>
-        <v>34</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="C5">
-        <f>B5</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <f>ROUND(Calculations!C28,0)</f>
-        <v>33</v>
+        <v>2.9819999999999999E-2</v>
       </c>
       <c r="C6">
-        <f>B6</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="F6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+      <c r="H6">
+        <v>2.9819999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>54</v>
       </c>
       <c r="B7">
-        <f>ROUND(Calculations!A48,0)</f>
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="C7">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="D7">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="E7">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="F7">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="G7">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="H7">
+        <v>5.8500000000000003E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB51AB13-CA33-4AF7-A6AD-EAAE58A07EEC}">
+  <sheetPr>
+    <tabColor theme="2" tint="-9.9978637043366805E-2"/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="8" width="14.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C1" t="s">
+        <v>855</v>
+      </c>
+      <c r="D1" t="s">
+        <v>856</v>
+      </c>
+      <c r="E1" t="s">
+        <v>857</v>
+      </c>
+      <c r="F1" t="s">
+        <v>858</v>
+      </c>
+      <c r="G1" t="s">
+        <v>859</v>
+      </c>
+      <c r="H1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>5.5380247000000001E-2</v>
+      </c>
+      <c r="C2">
+        <v>5.5380247000000001E-2</v>
+      </c>
+      <c r="D2">
+        <v>5.5380247000000001E-2</v>
+      </c>
+      <c r="E2">
+        <v>5.5380247000000001E-2</v>
+      </c>
+      <c r="F2">
+        <v>5.5380247000000001E-2</v>
+      </c>
+      <c r="G2">
+        <v>5.5380247000000001E-2</v>
+      </c>
+      <c r="H2">
+        <v>5.5380247000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>6.0404717788497909E-2</v>
+      </c>
+      <c r="C3">
+        <v>6.0404717788497909E-2</v>
+      </c>
+      <c r="D3">
+        <v>6.0404717788497909E-2</v>
+      </c>
+      <c r="E3">
+        <v>6.0404717788497909E-2</v>
+      </c>
+      <c r="F3">
+        <v>6.0404717788497909E-2</v>
+      </c>
+      <c r="G3">
+        <v>6.0404717788497909E-2</v>
+      </c>
+      <c r="H3">
+        <v>6.0404717788497909E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
+      <c r="B5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="C6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="D6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="E6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="F6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="G6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="H6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
-        <f>B7</f>
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
